--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140D64B4-1875-4003-8489-D8F76920ED83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8505" yWindow="10470" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8505" yWindow="10470" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,10 +34,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>heroname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>increase_damage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -79,12 +74,32 @@
   </si>
   <si>
     <t>Prefabs\Hero\hero3</t>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max_hp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>damage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -142,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -150,6 +165,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -429,125 +445,173 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>200</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1">
+      <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
+      <c r="I3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>200</v>
       </c>
       <c r="D4" s="1">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3">
+        <v>200</v>
+      </c>
+      <c r="D5" s="1">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>move_speed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -448,8 +452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -516,7 +520,7 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
@@ -536,7 +540,7 @@
         <v>10</v>
       </c>
       <c r="E3" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" s="1">
         <v>2</v>
@@ -565,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -594,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1">
         <v>4</v>

--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92A3366-B194-4942-B4CE-30A4172C42D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -110,13 +109,20 @@
   </si>
   <si>
     <t>Prefabs\Hero\UIhero3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ui_prefab_path</t>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -462,11 +468,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,7 +484,7 @@
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -507,7 +513,9 @@
       <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
@@ -537,7 +545,9 @@
       <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" s="2" t="s">
         <v>3</v>
       </c>

--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3DA655-5272-499F-A483-80798D86A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="7200" windowWidth="28800" windowHeight="14970"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,8 +24,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Jeong</author>
+  </authors>
+  <commentList>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2E331159-F15C-4F52-B280-9B2AD3157BFD}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Jeong:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>벨런스타입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+1 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>체력타입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+2 : </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>공격타입</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">,
+3: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>속도타입</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -66,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\hero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs\Hero\hero2</t>
   </si>
   <si>
@@ -96,14 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\Hero\UIhero1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs\Hero\UIhero2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,14 +205,62 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sprite_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIhero4</t>
+  </si>
+  <si>
+    <t>Prefabs\Hero\hero4</t>
+  </si>
+  <si>
+    <t>hero4</t>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIhero5</t>
+  </si>
+  <si>
+    <t>Prefabs\Hero\hero5</t>
+  </si>
+  <si>
+    <t>hero5</t>
+  </si>
+  <si>
+    <t>Prefabs\Hero\hero6</t>
+  </si>
+  <si>
+    <t>hero6</t>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Uipupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\pupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIhero6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +274,26 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +345,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -468,11 +627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -484,25 +643,27 @@
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.75" customWidth="1"/>
+    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -514,13 +675,19 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -528,38 +695,44 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
+        <v>32</v>
+      </c>
+      <c r="C3" s="1">
         <v>200</v>
       </c>
       <c r="D3" s="1">
@@ -575,23 +748,29 @@
         <v>2</v>
       </c>
       <c r="H3" s="1">
-        <v>2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1">
         <v>200</v>
       </c>
       <c r="D4" s="1">
@@ -607,23 +786,29 @@
         <v>4</v>
       </c>
       <c r="H4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <v>200</v>
       </c>
       <c r="D5" s="1">
@@ -639,18 +824,133 @@
         <v>1</v>
       </c>
       <c r="H5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1">
+        <v>300</v>
+      </c>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1">
+        <v>300</v>
+      </c>
+      <c r="D7" s="1">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I7" s="1">
         <v>1</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>105</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1">
+        <v>300</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F3DA655-5272-499F-A483-80798D86A7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DD718-2C74-4753-A909-5039EE5EF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="20625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,24 +155,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>hero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hero3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>prefab_path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\hero2</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\hero3</t>
-  </si>
-  <si>
     <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -193,14 +179,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\UIhero2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\Hero\UIhero3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ui_prefab_path</t>
   </si>
   <si>
@@ -216,43 +194,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\UIhero4</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\hero4</t>
-  </si>
-  <si>
-    <t>hero4</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\UIhero5</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\hero5</t>
-  </si>
-  <si>
-    <t>hero5</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\hero6</t>
-  </si>
-  <si>
-    <t>hero6</t>
-  </si>
-  <si>
-    <t>Prefabs\Hero\Uipupu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Prefabs\Hero\pupu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pupu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\UIhero6</t>
+    <t>Rosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Finn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UiPupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIRosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>finn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Pupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Rosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Finn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Bo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIFinn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIBo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Papa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIPapa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Aidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UiAidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>papa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +665,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -654,16 +688,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
@@ -675,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -695,28 +729,28 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>3</v>
@@ -730,7 +764,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
@@ -754,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -768,7 +802,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -792,13 +826,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -806,7 +840,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -830,20 +864,22 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>103</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="1">
         <v>300</v>
       </c>
@@ -866,20 +902,22 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>104</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="1">
         <v>300</v>
       </c>
@@ -902,20 +940,22 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>105</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C8" s="1">
         <v>300</v>
       </c>
@@ -938,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D7DD718-2C74-4753-A909-5039EE5EF30B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="14970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +24,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jeong</author>
+    <author>김현정</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{2E331159-F15C-4F52-B280-9B2AD3157BFD}">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -121,6 +121,643 @@
             <charset val="129"/>
           </rPr>
           <t>속도타입</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>노랑</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">분홍
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">민트
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">파랑
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">검정
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">주황
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B9" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>쥐</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B10" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">강아지
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B11" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>개구리</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사자</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>올빼미</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">투끼
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B15" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>순록</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B16" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>오소리</t>
         </r>
       </text>
     </comment>
@@ -129,7 +766,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,10 +855,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\UiPupu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Prefabs\Hero\UIRosa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,19 +915,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Prefabs\Hero\UiAidan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>papa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jasper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Felix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Casey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIAidan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIPupu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIRick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIKali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIJasper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIGregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIFelix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UICasey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UISebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\UIMickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Rick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Kali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Jasper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Gregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Felix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Casey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prefabs\Hero\Mickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kali</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jasper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>felix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>casey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sebastian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mickey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +1088,14 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="돋움"/>
@@ -371,7 +1144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -382,6 +1155,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -661,11 +1435,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,8 +1451,8 @@
     <col min="6" max="6" width="16.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.75" customWidth="1"/>
-    <col min="10" max="10" width="22.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.75" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -788,10 +1562,10 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>16</v>
@@ -826,13 +1600,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -840,7 +1614,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -864,13 +1638,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -902,13 +1676,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -940,13 +1714,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -978,13 +1752,317 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>106</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>27</v>
+      <c r="C9" s="3">
+        <v>250</v>
+      </c>
+      <c r="D9" s="3">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>107</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="3">
+        <v>250</v>
+      </c>
+      <c r="D10" s="3">
+        <v>12</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F10" s="4">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>4.25</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I10" s="4">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>108</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="3">
+        <v>250</v>
+      </c>
+      <c r="D11" s="4">
+        <v>12</v>
+      </c>
+      <c r="E11" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F11" s="4">
+        <v>5</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I11" s="4">
+        <v>2</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>109</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="3">
+        <v>250</v>
+      </c>
+      <c r="D12" s="3">
+        <v>12</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F12" s="4">
+        <v>4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>110</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3">
+        <v>250</v>
+      </c>
+      <c r="D13" s="3">
+        <v>12</v>
+      </c>
+      <c r="E13" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="3">
+        <v>250</v>
+      </c>
+      <c r="D14" s="4">
+        <v>12</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I14" s="4">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>112</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="3">
+        <v>250</v>
+      </c>
+      <c r="D15" s="3">
+        <v>12</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F15" s="4">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>113</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="3">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>12</v>
+      </c>
+      <c r="E16" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="F16" s="4">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
+++ b/Client/Dev/AnimalRescue/Assets/Tables/hero_data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\Unity\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\GitHub\AnimalRescue\Client\Dev\AnimalRescue\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB36C3C4-EDEF-4C99-9F14-12000581F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="14970"/>
+    <workbookView xWindow="10620" yWindow="4350" windowWidth="21330" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,13 +25,13 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeong</author>
     <author>김현정</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B3" authorId="1" shapeId="0">
+    <comment ref="B3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -169,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="1" shapeId="0">
+    <comment ref="B4" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -215,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B5" authorId="1" shapeId="0">
+    <comment ref="B5" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -261,7 +262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B6" authorId="1" shapeId="0">
+    <comment ref="B6" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -307,7 +308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B7" authorId="1" shapeId="0">
+    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B8" authorId="1" shapeId="0">
+    <comment ref="B8" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -399,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B9" authorId="1" shapeId="0">
+    <comment ref="B9" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -444,7 +445,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B10" authorId="1" shapeId="0">
+    <comment ref="B10" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -490,7 +491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1" shapeId="0">
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -535,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="1" shapeId="0">
+    <comment ref="B12" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -580,7 +581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="1" shapeId="0">
+    <comment ref="B13" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -625,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -671,7 +672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="1" shapeId="0">
+    <comment ref="B15" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -716,7 +717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="1" shapeId="0">
+    <comment ref="B16" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -827,10 +828,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>monster_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>pupu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1052,13 +1049,17 @@
   </si>
   <si>
     <t>mickey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hero_type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1435,11 +1436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1484,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>12</v>
@@ -1538,7 +1539,7 @@
         <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>200</v>
@@ -1562,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1576,7 +1577,7 @@
         <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>200</v>
@@ -1600,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="J4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -1614,7 +1615,7 @@
         <v>102</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>200</v>
@@ -1638,13 +1639,13 @@
         <v>2</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -1652,7 +1653,7 @@
         <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <v>300</v>
@@ -1676,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -1690,7 +1691,7 @@
         <v>104</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <v>300</v>
@@ -1714,13 +1715,13 @@
         <v>1</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -1728,7 +1729,7 @@
         <v>105</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <v>300</v>
@@ -1752,13 +1753,13 @@
         <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -1766,7 +1767,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="3">
         <v>250</v>
@@ -1790,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -1804,7 +1805,7 @@
         <v>107</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="3">
         <v>250</v>
@@ -1828,13 +1829,13 @@
         <v>1</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -1842,7 +1843,7 @@
         <v>108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <v>250</v>
@@ -1866,13 +1867,13 @@
         <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1880,7 +1881,7 @@
         <v>109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="3">
         <v>250</v>
@@ -1898,19 +1899,19 @@
         <v>1.75</v>
       </c>
       <c r="H12" s="4">
-        <v>1.75</v>
+        <v>0.7</v>
       </c>
       <c r="I12" s="4">
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1918,7 +1919,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="3">
         <v>250</v>
@@ -1942,13 +1943,13 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -1956,7 +1957,7 @@
         <v>111</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="3">
         <v>250</v>
@@ -1980,13 +1981,13 @@
         <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -1994,7 +1995,7 @@
         <v>112</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3">
         <v>250</v>
@@ -2018,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
@@ -2032,7 +2033,7 @@
         <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="3">
         <v>250</v>
@@ -2056,13 +2057,13 @@
         <v>0</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
